--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -581,7 +581,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/VsMedProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/VsMedProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -665,7 +665,7 @@
     <t>Regulatory type, e.g. Investigational or Authorized.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/medProductType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/medProductType</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asSpecializedKind.generalizedMaterialKind.code</t>
@@ -751,7 +751,7 @@
     <t>The dose form for a single part product, or combined form of a multiple part product. This is one concept that describes all the components. It does not represent the form with components physically mixed, if that might be necessary, for which see (AdministrableProductDefinition.administrableDoseForm).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/PharmaceuticalDoseForm</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/PharmaceuticalDoseForm</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT'].formCode</t>
@@ -769,7 +769,7 @@
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. See also AdministrableProductDefinition resource. MedicinalProductDefinition.route is the same concept as AdministrableProductDefinition.routeOfAdministration.code, and they cannot be used together.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/routeOfAdministration</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/routeOfAdministration</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].productOf.reconstitution.consumable.administerableMaterial.consumedIn.substanceAdministration1.routeCode</t>
@@ -802,7 +802,7 @@
     <t>The legal status of supply of the medicinal product as classified by the regulator.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/legalStatusOfSupply</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/legalStatusOfSupply</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.approval[@code='{Approval_MarketingAuthorisation}'].pertinentInformation.policy.code</t>
@@ -820,7 +820,7 @@
     <t>Whether the Medicinal Product is subject to additional monitoring for regulatory reasons, such as heightened reporting requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/additionalMonitoringIndicator</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/additionalMonitoringIndicator</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.policy.code</t>
@@ -862,7 +862,7 @@
     <t>If authorised for use in children, or infants, neonates etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/pediatricUseIndicator</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/pediatricUseIndicator</t>
   </si>
   <si>
     <t>Medicinal Product.Pediatric Use Indicator</t>
@@ -877,7 +877,7 @@
     <t>Allows the product to be classified by various systems, commonly WHO ATC.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/atcClassification</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/atcClassification</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct/asSpecializedKind/generalizedMaterialKind/code</t>
@@ -961,7 +961,7 @@
     <t>This attribute provides information on the status of the marketing of the medicinal product See ISO/TS 20443 for more information and examples.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/marketingStatus</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/marketingStatus</t>
   </si>
   <si>
     <t>MarketingStatus.status</t>
@@ -994,7 +994,7 @@
     <t>Package type for the product. See also the PackagedProductDefinition resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/packageType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageType</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asContent.containerPackagedProduct.asContent.containerPackagedProduct.code</t>
@@ -1405,7 +1405,7 @@
     <t>Country code for where this name applies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/country</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/country</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asNamedEntity.assigningTerritory.code</t>
@@ -1530,7 +1530,7 @@
     <t>The type of manufacturing operation e.g. manufacturing itself, re-packaging. For the authorization of this, a RegulatedAuthorization would point to the same plan or activity referenced here.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/operationType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/operationType</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action.code</t>
@@ -1591,7 +1591,7 @@
     <t>MedicinalProductDefinition.operation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="101.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.75390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -445,7 +445,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -529,7 +529,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -606,7 +606,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Detailed definition of a medicinal product</t>
@@ -2266,13 +2270,13 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2338,21 +2342,21 @@
         <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2363,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -2372,19 +2376,19 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2434,13 +2438,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -2460,10 +2464,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2474,7 +2478,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -2483,16 +2487,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2543,19 +2547,19 @@
         <v>75</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -2569,10 +2573,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2583,28 +2587,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2654,19 +2658,19 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -2680,10 +2684,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2694,7 +2698,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2706,16 +2710,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2741,13 +2745,13 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -2765,19 +2769,19 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>75</v>
@@ -2791,21 +2795,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -2817,16 +2821,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2876,22 +2880,22 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2902,14 +2906,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2928,16 +2932,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2987,7 +2991,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3002,7 +3006,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -3013,14 +3017,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3039,16 +3043,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3098,7 +3102,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3110,10 +3114,10 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -3124,14 +3128,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3144,25 +3148,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -3211,7 +3215,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3223,10 +3227,10 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -3237,18 +3241,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
@@ -3260,16 +3264,16 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3320,7 +3324,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3332,24 +3336,24 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3360,7 +3364,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3372,13 +3376,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3429,13 +3433,13 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
@@ -3444,7 +3448,7 @@
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -3455,14 +3459,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3481,16 +3485,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3528,19 +3532,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3552,10 +3556,10 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -3566,10 +3570,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3580,31 +3584,31 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3629,11 +3633,11 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3651,22 +3655,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3677,10 +3681,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3691,7 +3695,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3700,22 +3704,22 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3740,11 +3744,11 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3762,22 +3766,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3788,10 +3792,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3799,10 +3803,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -3811,22 +3815,22 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3839,7 +3843,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>75</v>
@@ -3851,11 +3855,11 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3873,22 +3877,22 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3899,10 +3903,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3910,10 +3914,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3922,19 +3926,19 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3948,7 +3952,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3984,22 +3988,22 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4010,10 +4014,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4024,7 +4028,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -4033,16 +4037,16 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4093,22 +4097,22 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4119,10 +4123,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4133,7 +4137,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -4142,19 +4146,19 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4204,22 +4208,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -4230,10 +4234,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4244,7 +4248,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -4253,16 +4257,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4289,11 +4293,11 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4311,25 +4315,25 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4337,10 +4341,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4351,7 +4355,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4360,16 +4364,16 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4396,11 +4400,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4418,25 +4422,25 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4444,10 +4448,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4458,7 +4462,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4467,16 +4471,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4527,25 +4531,25 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4553,10 +4557,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4567,25 +4571,25 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4612,11 +4616,11 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4634,25 +4638,25 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -4660,10 +4664,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4674,7 +4678,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4683,16 +4687,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4743,25 +4747,25 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -4769,10 +4773,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4783,7 +4787,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4792,16 +4796,16 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4852,25 +4856,25 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4878,10 +4882,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4892,7 +4896,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4901,16 +4905,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4937,11 +4941,11 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4959,25 +4963,25 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4985,10 +4989,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5008,16 +5012,16 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5044,11 +5048,11 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -5066,7 +5070,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5078,13 +5082,13 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -5092,10 +5096,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5106,7 +5110,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5115,16 +5119,16 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5175,25 +5179,25 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5201,10 +5205,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5215,7 +5219,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -5224,16 +5228,16 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5260,11 +5264,11 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -5282,25 +5286,25 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5308,10 +5312,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5322,7 +5326,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5331,16 +5335,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5367,11 +5371,11 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5389,25 +5393,25 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5415,10 +5419,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5438,16 +5442,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5474,13 +5478,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5498,7 +5502,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5510,13 +5514,13 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -5524,10 +5528,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5538,7 +5542,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5547,16 +5551,16 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5583,11 +5587,11 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5605,25 +5609,25 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -5631,10 +5635,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5654,16 +5658,16 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5690,11 +5694,11 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5712,7 +5716,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5724,13 +5728,13 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -5738,10 +5742,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5761,16 +5765,16 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5821,7 +5825,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5833,13 +5837,13 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -5847,10 +5851,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5861,7 +5865,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5873,13 +5877,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5930,13 +5934,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5945,7 +5949,7 @@
         <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5956,14 +5960,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5982,16 +5986,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6029,19 +6033,19 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6053,10 +6057,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -6067,14 +6071,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6087,25 +6091,25 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -6154,7 +6158,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6166,10 +6170,10 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -6180,10 +6184,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6194,7 +6198,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -6203,16 +6207,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6263,19 +6267,19 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6289,10 +6293,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6303,7 +6307,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6312,16 +6316,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6372,19 +6376,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -6398,10 +6402,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6409,10 +6413,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6421,16 +6425,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6457,11 +6461,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6479,19 +6483,19 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
@@ -6505,10 +6509,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6519,7 +6523,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6528,16 +6532,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6588,19 +6592,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6614,10 +6618,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6628,7 +6632,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6637,16 +6641,16 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6697,19 +6701,19 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6723,10 +6727,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6746,16 +6750,16 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6782,11 +6786,11 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6804,7 +6808,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6816,13 +6820,13 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6830,10 +6834,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6853,16 +6857,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6913,7 +6917,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6925,13 +6929,13 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6939,10 +6943,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,16 +6966,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6998,13 +7002,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7022,7 +7026,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7034,13 +7038,13 @@
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7048,10 +7052,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7071,16 +7075,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7107,13 +7111,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7131,7 +7135,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7143,13 +7147,13 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>75</v>
@@ -7157,10 +7161,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7180,16 +7184,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7240,7 +7244,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7252,13 +7256,13 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
@@ -7266,10 +7270,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7289,16 +7293,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7349,7 +7353,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7361,13 +7365,13 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7375,10 +7379,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7398,16 +7402,16 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7458,7 +7462,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7470,13 +7474,13 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7484,10 +7488,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7498,7 +7502,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -7510,13 +7514,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7567,13 +7571,13 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
@@ -7582,7 +7586,7 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7593,14 +7597,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7619,16 +7623,16 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7678,7 +7682,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7690,10 +7694,10 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -7704,14 +7708,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7724,25 +7728,25 @@
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7791,7 +7795,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7803,10 +7807,10 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7817,10 +7821,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7831,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7840,16 +7844,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7876,13 +7880,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7900,25 +7904,25 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7926,10 +7930,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7937,10 +7941,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7949,16 +7953,16 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8009,25 +8013,25 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8035,10 +8039,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8058,16 +8062,16 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8118,7 +8122,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8130,13 +8134,13 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -8144,10 +8148,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8167,16 +8171,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8203,13 +8207,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8227,7 +8231,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8239,13 +8243,13 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8253,10 +8257,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8264,7 +8268,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8276,16 +8280,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8336,10 +8340,10 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
@@ -8348,13 +8352,13 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8362,10 +8366,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8376,7 +8380,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8388,13 +8392,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8445,13 +8449,13 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
@@ -8460,7 +8464,7 @@
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8471,14 +8475,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8497,16 +8501,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8556,7 +8560,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8568,10 +8572,10 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8582,14 +8586,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8602,25 +8606,25 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8669,7 +8673,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8681,10 +8685,10 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8695,10 +8699,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8706,10 +8710,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8718,16 +8722,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8742,7 +8746,7 @@
         <v>75</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>75</v>
@@ -8778,25 +8782,25 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8804,10 +8808,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8818,7 +8822,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8827,16 +8831,16 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8848,7 +8852,7 @@
         <v>75</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>75</v>
@@ -8863,13 +8867,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -8887,25 +8891,25 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -8913,10 +8917,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8936,16 +8940,16 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8984,17 +8988,17 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9006,13 +9010,13 @@
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9020,10 +9024,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9034,7 +9038,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -9046,13 +9050,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9103,13 +9107,13 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
@@ -9118,7 +9122,7 @@
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -9129,14 +9133,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9155,16 +9159,16 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9214,7 +9218,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9226,10 +9230,10 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -9240,14 +9244,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9260,25 +9264,25 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9327,7 +9331,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9339,10 +9343,10 @@
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
@@ -9353,10 +9357,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9364,10 +9368,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -9376,16 +9380,16 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9436,25 +9440,25 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9462,10 +9466,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9473,10 +9477,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
@@ -9485,16 +9489,16 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9521,13 +9525,13 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>75</v>
@@ -9545,25 +9549,25 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9571,13 +9575,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>75</v>
@@ -9596,16 +9600,16 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9656,7 +9660,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9668,13 +9672,13 @@
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>75</v>
@@ -9682,10 +9686,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9696,7 +9700,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9708,13 +9712,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9765,13 +9769,13 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -9780,7 +9784,7 @@
         <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9791,14 +9795,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9817,16 +9821,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9876,7 +9880,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9888,10 +9892,10 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
@@ -9902,14 +9906,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9922,25 +9926,25 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -9989,7 +9993,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10001,10 +10005,10 @@
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -10015,10 +10019,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10026,10 +10030,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -10038,16 +10042,16 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10062,7 +10066,7 @@
         <v>75</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>75</v>
@@ -10098,25 +10102,25 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10124,10 +10128,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10135,10 +10139,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -10147,16 +10151,16 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10168,7 +10172,7 @@
         <v>75</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>75</v>
@@ -10183,13 +10187,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10207,25 +10211,25 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>75</v>
@@ -10233,13 +10237,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>75</v>
@@ -10258,16 +10262,16 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10318,7 +10322,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10330,13 +10334,13 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>75</v>
@@ -10344,10 +10348,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10358,7 +10362,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10370,13 +10374,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10427,13 +10431,13 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
@@ -10442,7 +10446,7 @@
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10453,14 +10457,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10479,16 +10483,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10538,7 +10542,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10550,10 +10554,10 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
@@ -10564,14 +10568,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10584,25 +10588,25 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10651,7 +10655,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10663,10 +10667,10 @@
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>75</v>
@@ -10677,10 +10681,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10688,10 +10692,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
@@ -10700,16 +10704,16 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10724,7 +10728,7 @@
         <v>75</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>75</v>
@@ -10760,25 +10764,25 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>
@@ -10786,10 +10790,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10797,10 +10801,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>75</v>
@@ -10809,16 +10813,16 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10830,7 +10834,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -10845,13 +10849,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -10869,25 +10873,25 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>75</v>
@@ -10895,13 +10899,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>75</v>
@@ -10920,16 +10924,16 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10980,7 +10984,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10992,13 +10996,13 @@
         <v>75</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -11006,10 +11010,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11020,7 +11024,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
@@ -11032,13 +11036,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11089,13 +11093,13 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>75</v>
@@ -11104,7 +11108,7 @@
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -11115,14 +11119,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11141,16 +11145,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11200,7 +11204,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11212,10 +11216,10 @@
         <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -11226,14 +11230,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11246,25 +11250,25 @@
         <v>75</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11313,7 +11317,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11325,10 +11329,10 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -11339,10 +11343,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11350,10 +11354,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -11362,16 +11366,16 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11386,7 +11390,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>75</v>
@@ -11422,25 +11426,25 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
@@ -11448,10 +11452,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11459,10 +11463,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>75</v>
@@ -11471,16 +11475,16 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11492,7 +11496,7 @@
         <v>75</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>75</v>
@@ -11507,13 +11511,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11531,25 +11535,25 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>75</v>
@@ -11557,13 +11561,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>75</v>
@@ -11582,16 +11586,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11642,7 +11646,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -11654,13 +11658,13 @@
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -11668,10 +11672,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11682,7 +11686,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
@@ -11694,13 +11698,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11751,13 +11755,13 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>75</v>
@@ -11766,7 +11770,7 @@
         <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>75</v>
@@ -11777,14 +11781,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11803,16 +11807,16 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11862,7 +11866,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11874,10 +11878,10 @@
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11888,14 +11892,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11908,25 +11912,25 @@
         <v>75</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
@@ -11975,7 +11979,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11987,10 +11991,10 @@
         <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -12001,10 +12005,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12012,10 +12016,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>75</v>
@@ -12024,16 +12028,16 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12048,7 +12052,7 @@
         <v>75</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>75</v>
@@ -12084,25 +12088,25 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12110,10 +12114,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12121,10 +12125,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -12133,16 +12137,16 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12154,7 +12158,7 @@
         <v>75</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>75</v>
@@ -12169,13 +12173,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -12193,25 +12197,25 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>75</v>
@@ -12219,10 +12223,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12242,16 +12246,16 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12302,7 +12306,7 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -12314,13 +12318,13 @@
         <v>75</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>75</v>
@@ -12328,10 +12332,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12342,7 +12346,7 @@
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12354,13 +12358,13 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12411,13 +12415,13 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>75</v>
@@ -12426,7 +12430,7 @@
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
@@ -12437,14 +12441,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12463,16 +12467,16 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12522,7 +12526,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -12534,10 +12538,10 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
@@ -12548,14 +12552,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12568,25 +12572,25 @@
         <v>75</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -12635,7 +12639,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -12647,10 +12651,10 @@
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
@@ -12661,10 +12665,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12672,10 +12676,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>75</v>
@@ -12684,16 +12688,16 @@
         <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12720,11 +12724,11 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -12742,25 +12746,25 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>75</v>
@@ -12768,10 +12772,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12782,7 +12786,7 @@
         <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>75</v>
@@ -12791,16 +12795,16 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12827,11 +12831,11 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -12849,25 +12853,25 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>75</v>
@@ -12875,10 +12879,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12886,10 +12890,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>75</v>
@@ -12898,16 +12902,16 @@
         <v>75</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12934,13 +12938,13 @@
         <v>75</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>75</v>
@@ -12958,25 +12962,25 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>75</v>
@@ -12984,10 +12988,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13007,16 +13011,16 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13067,7 +13071,7 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -13079,13 +13083,13 @@
         <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>75</v>
@@ -13093,10 +13097,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13107,7 +13111,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13119,13 +13123,13 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13176,13 +13180,13 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>75</v>
@@ -13191,7 +13195,7 @@
         <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>75</v>
@@ -13202,14 +13206,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13228,16 +13232,16 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13287,7 +13291,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13299,10 +13303,10 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>75</v>
@@ -13313,14 +13317,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13333,25 +13337,25 @@
         <v>75</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -13400,7 +13404,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -13412,10 +13416,10 @@
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>75</v>
@@ -13426,10 +13430,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13437,10 +13441,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>75</v>
@@ -13449,16 +13453,16 @@
         <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13509,25 +13513,25 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -13535,10 +13539,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13549,7 +13553,7 @@
         <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>75</v>
@@ -13558,16 +13562,16 @@
         <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13594,11 +13598,11 @@
         <v>75</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>75</v>
@@ -13616,25 +13620,25 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
@@ -13642,10 +13646,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13665,16 +13669,16 @@
         <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13725,7 +13729,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -13737,13 +13741,13 @@
         <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>75</v>
@@ -13751,10 +13755,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13765,7 +13769,7 @@
         <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>75</v>
@@ -13777,13 +13781,13 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13834,13 +13838,13 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>75</v>
@@ -13849,7 +13853,7 @@
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
@@ -13860,14 +13864,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -13886,16 +13890,16 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13945,7 +13949,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -13957,10 +13961,10 @@
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>75</v>
@@ -13971,14 +13975,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -13991,25 +13995,25 @@
         <v>75</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>75</v>
@@ -14058,7 +14062,7 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14070,10 +14074,10 @@
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>75</v>
@@ -14084,10 +14088,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14098,7 +14102,7 @@
         <v>76</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>75</v>
@@ -14107,16 +14111,16 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14143,11 +14147,11 @@
         <v>75</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>75</v>
@@ -14165,25 +14169,25 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>75</v>
@@ -14191,10 +14195,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14205,7 +14209,7 @@
         <v>76</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>75</v>
@@ -14217,13 +14221,13 @@
         <v>75</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14274,13 +14278,13 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>75</v>
@@ -14289,7 +14293,7 @@
         <v>75</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>75</v>
@@ -14300,14 +14304,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14326,16 +14330,16 @@
         <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14373,19 +14377,19 @@
         <v>75</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -14397,10 +14401,10 @@
         <v>75</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>75</v>
@@ -14411,10 +14415,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14422,10 +14426,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>75</v>
@@ -14434,16 +14438,16 @@
         <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14494,22 +14498,22 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>75</v>
@@ -14520,10 +14524,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14534,7 +14538,7 @@
         <v>76</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>75</v>
@@ -14543,16 +14547,16 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14603,22 +14607,22 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -14629,10 +14633,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14643,7 +14647,7 @@
         <v>76</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>75</v>
@@ -14652,16 +14656,16 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14712,25 +14716,25 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>75</v>
@@ -14738,10 +14742,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14761,16 +14765,16 @@
         <v>75</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14821,7 +14825,7 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -14833,13 +14837,13 @@
         <v>75</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>75</v>
@@ -14847,10 +14851,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14861,7 +14865,7 @@
         <v>76</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>75</v>
@@ -14870,16 +14874,16 @@
         <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14906,13 +14910,13 @@
         <v>75</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>75</v>
@@ -14930,25 +14934,25 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>75</v>
@@ -14956,10 +14960,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14979,16 +14983,16 @@
         <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15039,7 +15043,7 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15051,13 +15055,13 @@
         <v>75</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>75</v>
@@ -15065,10 +15069,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15079,7 +15083,7 @@
         <v>76</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>75</v>
@@ -15091,13 +15095,13 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15148,13 +15152,13 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>75</v>
@@ -15163,7 +15167,7 @@
         <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>75</v>
@@ -15174,14 +15178,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15200,16 +15204,16 @@
         <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15259,7 +15263,7 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -15271,10 +15275,10 @@
         <v>75</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>75</v>
@@ -15285,14 +15289,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -15305,25 +15309,25 @@
         <v>75</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>75</v>
@@ -15372,7 +15376,7 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -15384,10 +15388,10 @@
         <v>75</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>75</v>
@@ -15398,10 +15402,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15409,10 +15413,10 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>75</v>
@@ -15421,16 +15425,16 @@
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15457,13 +15461,13 @@
         <v>75</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>75</v>
@@ -15481,25 +15485,25 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>75</v>
@@ -15507,10 +15511,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15521,7 +15525,7 @@
         <v>76</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>75</v>
@@ -15530,19 +15534,19 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15592,25 +15596,25 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -231,13 +231,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: IDMP Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: IDMP Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -259,13 +259,13 @@
     <t>A medicinal product, being a substance or combination of substances that is intended to treat, prevent or diagnose a disease, or to restore, correct or modify physiological functions by exerting a pharmacological, immunological or metabolic action. This resource is intended to define and detail such products and their properties, for uses other than direct patient care (e.g. regulatory use, or drug catalogs).</t>
   </si>
   <si>
-    <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT']</t>
+    <t>administrative.medication</t>
   </si>
   <si>
     <t>Medicinal Product and Investigational Medicinal Product</t>
   </si>
   <si>
-    <t>administrative.medication</t>
+    <t>Entity, Role, or Act,ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT']</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.id</t>
@@ -326,7 +326,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -348,13 +348,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -383,6 +383,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -409,6 +413,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -426,7 +434,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -445,11 +453,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -472,15 +480,15 @@
     <t>Business identifier for this product. Could be an MPID. When in development or being regulated, products are typically referenced by official identifiers, assigned by a manufacturer or regulator, and unique to a product (which, when compared to a product instance being prescribed, is actually a product type). See also MedicinalProductDefinition.code.</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Medicinal Product.MPID, Investigational Medicinal Product.IMPID</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT'].code</t>
   </si>
   <si>
-    <t>Medicinal Product.MPID, Investigational Medicinal Product.IMPID</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.identifier.id</t>
   </si>
   <si>
@@ -493,13 +501,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -530,10 +542,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -564,6 +576,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -576,7 +591,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -610,13 +625,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -672,13 +691,16 @@
     <t>Regulatory type, e.g. Investigational or Authorized.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/medProductType</t>
   </si>
   <si>
+    <t>(indicates if this is Medicinal Product or an Investigational Medicinal Product)</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asSpecializedKind.generalizedMaterialKind.code</t>
-  </si>
-  <si>
-    <t>(indicates if this is Medicinal Product or an Investigational Medicinal Product)</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.domain</t>
@@ -761,12 +783,12 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/PharmaceuticalDoseForm</t>
   </si>
   <si>
+    <t>Medicinal Product.Combined Pharmaceutical Dose Form</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT'].formCode</t>
   </si>
   <si>
-    <t>Medicinal Product.Combined Pharmaceutical Dose Form</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.route</t>
   </si>
   <si>
@@ -779,12 +801,12 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/routeOfAdministration</t>
   </si>
   <si>
+    <t>Pharmaceutical Product.Route of Administration</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].productOf.reconstitution.consumable.administerableMaterial.consumedIn.substanceAdministration1.routeCode</t>
   </si>
   <si>
-    <t>Pharmaceutical Product.Route of Administration</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.indication</t>
   </si>
   <si>
@@ -794,12 +816,12 @@
     <t>Description of indication(s) for this product, used when structured indications are not required. In cases where structured indications are required, they are captured using the ClinicalUseDefinition resource. An indication is a medical situation for which using the product is appropriate.</t>
   </si>
   <si>
+    <t>(roll up of all text in Therapeutic Indication.Indication Text, for common case where information is not granular)</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].consumedIn.substanceAdministration1.reason.indicationObservationCriterion[@code='{Observation_MedicalProblem}'].value.originalText.@value</t>
   </si>
   <si>
-    <t>(roll up of all text in Therapeutic Indication.Indication Text, for common case where information is not granular)</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.legalStatusOfSupply</t>
   </si>
   <si>
@@ -812,12 +834,12 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/legalStatusOfSupply</t>
   </si>
   <si>
-    <t>ManufacturedProduct[classCode='MANU'].subjectOf.approval[@code='{Approval_MarketingAuthorisation}'].pertinentInformation.policy.code</t>
-  </si>
-  <si>
     <t>Marketing Authorisation.Legal Status of Supply (moved here for practicality)</t>
   </si>
   <si>
+    <t>ManufacturedProduct[classCode='MANU'].subjectOf.approval[@code='{Approval_MarketingAuthorization}'].pertinentInformation.policy.code</t>
+  </si>
+  <si>
     <t>MedicinalProductDefinition.additionalMonitoringIndicator</t>
   </si>
   <si>
@@ -830,36 +852,36 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/additionalMonitoringIndicator</t>
   </si>
   <si>
+    <t>Medicinal Product.Additional Monitoring Indicator</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.policy.code</t>
   </si>
   <si>
-    <t>Medicinal Product.Additional Monitoring Indicator</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.specialMeasures</t>
   </si>
   <si>
     <t>Whether the Medicinal Product is subject to special measures for regulatory reasons</t>
   </si>
   <si>
-    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorisation studies.</t>
+    <t>Whether the Medicinal Product is subject to special measures for regulatory reasons, such as a requirement to conduct post-authorization studies.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Extra measures defined for a Medicinal Product, such as a requirement to conduct post-authorisation studies.</t>
+    <t>Extra measures defined for a Medicinal Product, such as a requirement to conduct post-authorization studies.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicinal-product-special-measures</t>
   </si>
   <si>
+    <t>Medicinal Product.Special Measures</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.policy.code[@nullFlavor='OTH'].displayName</t>
   </si>
   <si>
-    <t>Medicinal Product.Special Measures</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.pediatricUseIndicator</t>
   </si>
   <si>
@@ -887,10 +909,10 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/atcClassification</t>
   </si>
   <si>
+    <t>Product Classification.Value</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct/asSpecializedKind/generalizedMaterialKind/code</t>
-  </si>
-  <si>
-    <t>Product Classification.Value</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.marketingStatus</t>
@@ -906,10 +928,10 @@
     <t>Marketing status of the medicinal product, in contrast to marketing authorization. This refers to the product being actually 'on the market' as opposed to being allowed to be on the market (which is an authorization).</t>
   </si>
   <si>
-    <t>ManufacturedProduct[classCode='MANU'].subjectOf.approval[@code='{Approval_MarketingAuthorisation}'].statusCode</t>
-  </si>
-  <si>
     <t>Marketing Status</t>
+  </si>
+  <si>
+    <t>ManufacturedProduct[classCode='MANU'].subjectOf.approval[@code='{Approval_MarketingAuthorization}'].statusCode</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.marketingStatus.id</t>
@@ -928,7 +950,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -938,10 +960,10 @@
     <t>MedicinalProductDefinition.marketingStatus.country</t>
   </si>
   <si>
-    <t>The country in which the marketing authorisation has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements</t>
-  </si>
-  <si>
-    <t>The country in which the marketing authorisation has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
+    <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements</t>
+  </si>
+  <si>
+    <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
   </si>
   <si>
     <t>MarketingStatus.country</t>
@@ -950,10 +972,10 @@
     <t>MedicinalProductDefinition.marketingStatus.jurisdiction</t>
   </si>
   <si>
-    <t>Where a Medicines Regulatory Agency has granted a marketing authorisation for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified</t>
-  </si>
-  <si>
-    <t>Where a Medicines Regulatory Agency has granted a marketing authorisation for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
+    <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified</t>
+  </si>
+  <si>
+    <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
     <t>MarketingStatus.jurisdiction</t>
@@ -977,10 +999,10 @@
     <t>MedicinalProductDefinition.marketingStatus.dateRange</t>
   </si>
   <si>
-    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorisation Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain</t>
-  </si>
-  <si>
-    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorisation Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
+    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain</t>
+  </si>
+  <si>
+    <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
   </si>
   <si>
     <t>MarketingStatus.dateRange</t>
@@ -1004,10 +1026,10 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageType</t>
   </si>
   <si>
+    <t>Packaged Medicinal Product</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asContent.containerPackagedProduct.asContent.containerPackagedProduct.code</t>
-  </si>
-  <si>
-    <t>Packaged Medicinal Product</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.comprisedOf</t>
@@ -1023,12 +1045,12 @@
     <t>Types of medicinal manufactured items and/or devices that this product consists of, such as tablets, capsule, or syringes. Used as a direct link when the item's packaging is not being recorded (see also PackagedProductDefinition.package.containedItem.item).</t>
   </si>
   <si>
+    <t>Manufactured Item</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.formCode</t>
   </si>
   <si>
-    <t>Manufactured Item</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.ingredient</t>
   </si>
   <si>
@@ -1044,10 +1066,10 @@
     <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
   </si>
   <si>
+    <t>Medicinal Product.Ingredient (see also FHIR Ingredient resource)</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct[classCode='MMAT'].ingredient.ingredientSubstance.code</t>
-  </si>
-  <si>
-    <t>Medicinal Product.Ingredient (see also FHIR Ingredient resource)</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.impurity</t>
@@ -1079,10 +1101,10 @@
     <t>Additional information or supporting documentation about the medicinal product.</t>
   </si>
   <si>
+    <t>Attached Document</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.document</t>
-  </si>
-  <si>
-    <t>Attached Document</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.masterFile</t>
@@ -1163,10 +1185,10 @@
     <t>Clinical trials or studies that this product is involved in.</t>
   </si>
   <si>
+    <t>Investigational Medicinal Product.Clinical Trial Status</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.monitoringProgram</t>
-  </si>
-  <si>
-    <t>Investigational Medicinal Product.Clinical Trial Status</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.code</t>
@@ -1197,10 +1219,10 @@
     <t>The product's name, including full name and possibly coded parts.</t>
   </si>
   <si>
+    <t>Medicinal Product Name</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.name</t>
-  </si>
-  <si>
-    <t>Medicinal Product Name</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.id</t>
@@ -1266,10 +1288,10 @@
 </t>
   </si>
   <si>
+    <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.name.suffix</t>
-  </si>
-  <si>
-    <t>(any and all of the name parts e.g. Medicinal Product Name.Formulation Part)</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.name.part.id</t>
@@ -1460,12 +1482,12 @@
     <t>Country and jurisdiction where the name applies, and associated language.</t>
   </si>
   <si>
+    <t>Country / Language</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asNamedEntity</t>
   </si>
   <si>
-    <t>Country / Language</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.name.usage.id</t>
   </si>
   <si>
@@ -1487,12 +1509,12 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/country</t>
   </si>
   <si>
+    <t>Country / Language.Country</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asNamedEntity.assigningTerritory.code</t>
   </si>
   <si>
-    <t>Country / Language.Country</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.name.usage.jurisdiction</t>
   </si>
   <si>
@@ -1514,12 +1536,12 @@
     <t>Language code for this name.</t>
   </si>
   <si>
+    <t>Country / Language.Language</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asNamedEntity.name.@xml:lang</t>
   </si>
   <si>
-    <t>Country / Language.Language</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.crossReference</t>
   </si>
   <si>
@@ -1529,10 +1551,10 @@
     <t>Reference to another product, e.g. for linking authorised to investigational product, or a virtual product.</t>
   </si>
   <si>
+    <t>Product Cross-Reference</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].manufacturedProduct.asEquivalentEntity</t>
-  </si>
-  <si>
-    <t>Product Cross-Reference</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.crossReference.id</t>
@@ -1581,10 +1603,10 @@
     <t>A manufacturing or administrative process or step associated with (or performed on) the medicinal product.</t>
   </si>
   <si>
+    <t>Manufacturing / Business Operation</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action</t>
-  </si>
-  <si>
-    <t>Manufacturing / Business Operation</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.operation.id</t>
@@ -1612,10 +1634,10 @@
     <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/operationType</t>
   </si>
   <si>
+    <t>Manufacturing / Business Operation.Operation Type</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action.code</t>
-  </si>
-  <si>
-    <t>Manufacturing / Business Operation.Operation Type</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.operation.type.id</t>
@@ -1661,10 +1683,10 @@
     <t>Date range of applicability.</t>
   </si>
   <si>
+    <t>Manufacturing / Business Operation.Effective Date</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action.effectiveTime</t>
-  </si>
-  <si>
-    <t>Manufacturing / Business Operation.Effective Date</t>
   </si>
   <si>
     <t>MedicinalProductDefinition.operation.organization</t>
@@ -1680,12 +1702,12 @@
     <t>The organization or establishment responsible for (or associated with) the particular process or step, examples include the manufacturer, importer, agent.</t>
   </si>
   <si>
+    <t>Manufacturer / Establishment (Organisation)</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action.participation.organzation</t>
   </si>
   <si>
-    <t>Manufacturer / Establishment (Organisation)</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.operation.confidentialityIndicator</t>
   </si>
   <si>
@@ -1701,12 +1723,12 @@
     <t>http://hl7.org/fhir/ValueSet/medicinal-product-confidentiality</t>
   </si>
   <si>
+    <t>Manufacturing / Business Operation.Confidentiality Indicator</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.action.confidentialityCode</t>
   </si>
   <si>
-    <t>Manufacturing / Business Operation.Confidentiality Indicator</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.characteristic</t>
   </si>
   <si>
@@ -1716,12 +1738,12 @@
     <t>Allows the key product features to be recorded, such as "sugar free", "modified release", "parallel import".</t>
   </si>
   <si>
+    <t>Package Item (Container).Physical Characteristics</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.characteristic</t>
   </si>
   <si>
-    <t>Package Item (Container).Physical Characteristics</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.characteristic.id</t>
   </si>
   <si>
@@ -1746,17 +1768,17 @@
     <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
   </si>
   <si>
+    <t>Physical Characteristics, all attributes</t>
+  </si>
+  <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.characteristic[@code='{type}']</t>
   </si>
   <si>
-    <t>Physical Characteristics, all attributes</t>
-  </si>
-  <si>
     <t>MedicinalProductDefinition.characteristic.value[x]</t>
   </si>
   <si>
     <t>CodeableConcept
-stringQuantityintegerdatebooleanAttachment</t>
+markdownQuantityintegerdatebooleanAttachment</t>
   </si>
   <si>
     <t>A value for the characteristic</t>
@@ -1765,13 +1787,13 @@
     <t>A value for the characteristic.text.</t>
   </si>
   <si>
-    <t>String is intended to be used only when the item cannot ever reasonably be coded. Otherwise, for cases where a code is not available, but is feasible, use CodeableConcept. (temporary text to make build work: The usage of CodeableConcept is for concepts that are normally coded but for which a code is not available - for example a device implant size that is not standardized. The property string is for text characteristics, e.g. long descriptions, warnings, etc.).</t>
+    <t>Text, as markdown, is intended to be used only when the item cannot ever reasonably be coded. Otherwise, for cases where a code is not available, but is feasible, use CodeableConcept.text.</t>
+  </si>
+  <si>
+    <t>Physical Characteristics, attribute's value</t>
   </si>
   <si>
     <t>ManufacturedProduct[classCode='MANU'].subjectOf.characteristic[@code='{type}'].value</t>
-  </si>
-  <si>
-    <t>Physical Characteristics, attribute's value</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2129,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="101.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="101.8984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="78.60546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2118,9 +2140,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="175.15625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="103.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="175.15625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2889,31 +2911,31 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2932,16 +2954,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2991,7 +3013,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -3000,31 +3022,31 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3043,16 +3065,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3102,7 +3124,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3114,28 +3136,28 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3154,19 +3176,19 @@
         <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -3215,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3227,28 +3249,28 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3267,13 +3289,13 @@
         <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3324,7 +3346,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3339,21 +3361,21 @@
         <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3379,10 +3401,10 @@
         <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3433,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3442,31 +3464,31 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3485,16 +3507,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3532,19 +3554,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3556,24 +3578,24 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3599,16 +3621,16 @@
         <v>105</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3633,11 +3655,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3655,7 +3679,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3670,21 +3694,21 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3707,19 +3731,19 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3744,11 +3768,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3766,7 +3792,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3781,21 +3807,21 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3821,16 +3847,16 @@
         <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -3843,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>75</v>
@@ -3855,11 +3881,11 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3877,7 +3903,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3892,21 +3918,21 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3929,16 +3955,16 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3952,7 +3978,7 @@
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3988,7 +4014,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3997,27 +4023,27 @@
         <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4040,13 +4066,13 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4097,7 +4123,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4112,21 +4138,21 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4149,16 +4175,16 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4208,7 +4234,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4223,21 +4249,21 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4260,13 +4286,13 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4293,11 +4319,11 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -4315,7 +4341,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4330,21 +4356,21 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4367,13 +4393,13 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4400,11 +4426,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4422,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4437,21 +4463,21 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4474,13 +4500,13 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4531,7 +4557,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4546,21 +4572,21 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4583,13 +4609,13 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4616,11 +4642,11 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4638,7 +4664,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4653,21 +4679,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4690,13 +4716,13 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4747,7 +4773,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4762,21 +4788,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4799,13 +4825,13 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4856,7 +4882,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4871,21 +4897,21 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4908,13 +4934,13 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4941,11 +4967,11 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4963,7 +4989,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4978,21 +5004,21 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5015,13 +5041,13 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5048,11 +5074,11 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -5070,7 +5096,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5085,21 +5111,21 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,13 +5148,13 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5179,7 +5205,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5194,21 +5220,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5231,13 +5257,13 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5264,11 +5290,11 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -5286,7 +5312,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5301,21 +5327,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5338,13 +5364,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5371,11 +5397,11 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5393,7 +5419,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5408,21 +5434,21 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>75</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5445,13 +5471,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5478,13 +5504,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5502,7 +5528,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5517,21 +5543,21 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5554,13 +5580,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5587,11 +5613,11 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5609,7 +5635,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5624,21 +5650,21 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>75</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5661,13 +5687,13 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5694,11 +5720,11 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5716,7 +5742,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5731,21 +5757,21 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5768,13 +5794,13 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5825,7 +5851,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5840,21 +5866,21 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5880,10 +5906,10 @@
         <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5934,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5943,31 +5969,31 @@
         <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5986,16 +6012,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6033,19 +6059,19 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6057,28 +6083,28 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6097,19 +6123,19 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -6158,7 +6184,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6170,24 +6196,24 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6210,13 +6236,13 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6267,7 +6293,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6293,10 +6319,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6319,13 +6345,13 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6376,7 +6402,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6402,10 +6428,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6428,13 +6454,13 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6461,11 +6487,11 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6483,7 +6509,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>85</v>
@@ -6509,10 +6535,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6535,13 +6561,13 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6592,7 +6618,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6618,10 +6644,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6644,13 +6670,13 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6701,7 +6727,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6727,10 +6753,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6753,13 +6779,13 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6786,11 +6812,11 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6808,7 +6834,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6823,21 +6849,21 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6860,13 +6886,13 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6917,7 +6943,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6932,21 +6958,21 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>75</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6969,13 +6995,13 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7002,13 +7028,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -7026,7 +7052,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7041,21 +7067,21 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7078,13 +7104,13 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7111,13 +7137,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -7135,7 +7161,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7150,21 +7176,21 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7187,13 +7213,13 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7244,7 +7270,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7259,21 +7285,21 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7296,13 +7322,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7353,7 +7379,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7368,21 +7394,21 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7405,13 +7431,13 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7462,7 +7488,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7477,21 +7503,21 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7514,13 +7540,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7571,7 +7597,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7580,31 +7606,31 @@
         <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7623,16 +7649,16 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7682,7 +7708,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7694,28 +7720,28 @@
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7734,19 +7760,19 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7795,7 +7821,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7807,24 +7833,24 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7847,13 +7873,13 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7880,13 +7906,13 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7904,7 +7930,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7919,21 +7945,21 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7956,13 +7982,13 @@
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8013,7 +8039,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>85</v>
@@ -8028,21 +8054,21 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>75</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8065,13 +8091,13 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8122,7 +8148,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8137,21 +8163,21 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8174,13 +8200,13 @@
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8207,13 +8233,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -8231,7 +8257,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8246,21 +8272,21 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8283,13 +8309,13 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8340,7 +8366,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>85</v>
@@ -8355,21 +8381,21 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8392,13 +8418,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8449,7 +8475,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8458,31 +8484,31 @@
         <v>85</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8501,16 +8527,16 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8560,7 +8586,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8572,28 +8598,28 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8612,19 +8638,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -8673,7 +8699,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8685,24 +8711,24 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8725,13 +8751,13 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8746,7 +8772,7 @@
         <v>75</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>75</v>
@@ -8782,7 +8808,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>85</v>
@@ -8797,21 +8823,21 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8834,13 +8860,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8852,7 +8878,7 @@
         <v>75</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>75</v>
@@ -8867,13 +8893,13 @@
         <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>75</v>
@@ -8891,7 +8917,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8906,21 +8932,21 @@
         <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8943,13 +8969,13 @@
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8988,17 +9014,17 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9013,21 +9039,21 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9050,13 +9076,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9107,7 +9133,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9116,31 +9142,31 @@
         <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9159,16 +9185,16 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9218,7 +9244,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9230,28 +9256,28 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9270,19 +9296,19 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9331,7 +9357,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9343,24 +9369,24 @@
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9383,13 +9409,13 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9440,7 +9466,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>85</v>
@@ -9455,21 +9481,21 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9492,13 +9518,13 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9525,13 +9551,13 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>75</v>
@@ -9549,7 +9575,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9564,24 +9590,24 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>75</v>
@@ -9603,13 +9629,13 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9660,7 +9686,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9675,21 +9701,21 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9712,13 +9738,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9769,7 +9795,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9778,31 +9804,31 @@
         <v>85</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9821,16 +9847,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9880,7 +9906,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9892,28 +9918,28 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9932,19 +9958,19 @@
         <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -9993,7 +10019,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10005,24 +10031,24 @@
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10045,13 +10071,13 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10066,7 +10092,7 @@
         <v>75</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>75</v>
@@ -10102,7 +10128,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>85</v>
@@ -10117,21 +10143,21 @@
         <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10154,13 +10180,13 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10172,7 +10198,7 @@
         <v>75</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>75</v>
@@ -10187,13 +10213,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10211,7 +10237,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -10226,24 +10252,24 @@
         <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>75</v>
@@ -10265,13 +10291,13 @@
         <v>86</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10322,7 +10348,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10337,21 +10363,21 @@
         <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10374,13 +10400,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10431,7 +10457,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10440,31 +10466,31 @@
         <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10483,16 +10509,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10542,7 +10568,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10554,28 +10580,28 @@
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10594,19 +10620,19 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10655,7 +10681,7 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10667,24 +10693,24 @@
         <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10707,13 +10733,13 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10728,7 +10754,7 @@
         <v>75</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>75</v>
@@ -10764,7 +10790,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>85</v>
@@ -10779,21 +10805,21 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10816,13 +10842,13 @@
         <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10834,7 +10860,7 @@
         <v>75</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>75</v>
@@ -10849,13 +10875,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -10873,7 +10899,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>85</v>
@@ -10888,24 +10914,24 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>75</v>
@@ -10927,13 +10953,13 @@
         <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10984,7 +11010,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10999,21 +11025,21 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11036,13 +11062,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11093,7 +11119,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11102,31 +11128,31 @@
         <v>85</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11145,16 +11171,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11204,7 +11230,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11216,28 +11242,28 @@
         <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11256,19 +11282,19 @@
         <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11317,7 +11343,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11329,24 +11355,24 @@
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11369,13 +11395,13 @@
         <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11390,7 +11416,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>75</v>
@@ -11426,7 +11452,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>85</v>
@@ -11441,21 +11467,21 @@
         <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11478,13 +11504,13 @@
         <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11496,7 +11522,7 @@
         <v>75</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>75</v>
@@ -11511,13 +11537,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11535,7 +11561,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>85</v>
@@ -11550,24 +11576,24 @@
         <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>75</v>
@@ -11589,13 +11615,13 @@
         <v>86</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11646,7 +11672,7 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -11661,21 +11687,21 @@
         <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11698,13 +11724,13 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11755,7 +11781,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11764,31 +11790,31 @@
         <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11807,16 +11833,16 @@
         <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11866,7 +11892,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -11878,28 +11904,28 @@
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11918,19 +11944,19 @@
         <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
@@ -11979,7 +12005,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11991,24 +12017,24 @@
         <v>75</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12031,13 +12057,13 @@
         <v>86</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12052,7 +12078,7 @@
         <v>75</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>75</v>
@@ -12088,7 +12114,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>85</v>
@@ -12103,21 +12129,21 @@
         <v>97</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12140,13 +12166,13 @@
         <v>86</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12158,7 +12184,7 @@
         <v>75</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>75</v>
@@ -12173,13 +12199,13 @@
         <v>75</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>75</v>
@@ -12197,7 +12223,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>85</v>
@@ -12212,21 +12238,21 @@
         <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12249,13 +12275,13 @@
         <v>86</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12306,7 +12332,7 @@
         <v>75</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -12321,21 +12347,21 @@
         <v>97</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>75</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12358,13 +12384,13 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12415,7 +12441,7 @@
         <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -12424,31 +12450,31 @@
         <v>85</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12467,16 +12493,16 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12526,7 +12552,7 @@
         <v>75</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -12538,28 +12564,28 @@
         <v>75</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12578,19 +12604,19 @@
         <v>86</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>75</v>
@@ -12639,7 +12665,7 @@
         <v>75</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -12651,24 +12677,24 @@
         <v>75</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12691,13 +12717,13 @@
         <v>86</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12724,11 +12750,11 @@
         <v>75</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>75</v>
@@ -12746,7 +12772,7 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>85</v>
@@ -12761,21 +12787,21 @@
         <v>97</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>75</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12798,13 +12824,13 @@
         <v>86</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12831,11 +12857,11 @@
         <v>75</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>75</v>
@@ -12853,7 +12879,7 @@
         <v>75</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -12868,21 +12894,21 @@
         <v>97</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>75</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12905,13 +12931,13 @@
         <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12962,7 +12988,7 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>85</v>
@@ -12977,21 +13003,21 @@
         <v>97</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>75</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13014,13 +13040,13 @@
         <v>86</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13071,7 +13097,7 @@
         <v>75</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -13086,21 +13112,21 @@
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>485</v>
+        <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>75</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13123,13 +13149,13 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13180,7 +13206,7 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -13189,31 +13215,31 @@
         <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -13232,16 +13258,16 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13291,7 +13317,7 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -13303,28 +13329,28 @@
         <v>75</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13343,19 +13369,19 @@
         <v>86</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>75</v>
@@ -13404,7 +13430,7 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -13416,24 +13442,24 @@
         <v>75</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13456,13 +13482,13 @@
         <v>86</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13513,7 +13539,7 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>85</v>
@@ -13528,21 +13554,21 @@
         <v>97</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>493</v>
+        <v>75</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>75</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13565,13 +13591,13 @@
         <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13598,11 +13624,11 @@
         <v>75</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>75</v>
@@ -13620,7 +13646,7 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -13635,21 +13661,21 @@
         <v>97</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>498</v>
+        <v>75</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>75</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13672,13 +13698,13 @@
         <v>86</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13729,7 +13755,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -13744,21 +13770,21 @@
         <v>97</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>502</v>
+        <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>75</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13781,13 +13807,13 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13838,7 +13864,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -13847,31 +13873,31 @@
         <v>85</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -13890,16 +13916,16 @@
         <v>75</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13949,7 +13975,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -13961,28 +13987,28 @@
         <v>75</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14001,19 +14027,19 @@
         <v>86</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>75</v>
@@ -14062,7 +14088,7 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14074,24 +14100,24 @@
         <v>75</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14114,13 +14140,13 @@
         <v>86</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -14147,11 +14173,11 @@
         <v>75</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>75</v>
@@ -14169,7 +14195,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -14184,21 +14210,21 @@
         <v>97</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>75</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14224,10 +14250,10 @@
         <v>87</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -14278,7 +14304,7 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -14287,31 +14313,31 @@
         <v>85</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14330,16 +14356,16 @@
         <v>75</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -14377,19 +14403,19 @@
         <v>75</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -14401,24 +14427,24 @@
         <v>75</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14441,13 +14467,13 @@
         <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14498,7 +14524,7 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -14513,21 +14539,21 @@
         <v>97</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14550,13 +14576,13 @@
         <v>86</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14607,7 +14633,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -14622,21 +14648,21 @@
         <v>97</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14659,13 +14685,13 @@
         <v>86</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -14716,7 +14742,7 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -14731,21 +14757,21 @@
         <v>97</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>528</v>
+        <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>75</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14768,13 +14794,13 @@
         <v>86</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -14825,7 +14851,7 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -14840,21 +14866,21 @@
         <v>97</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>534</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>75</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14877,13 +14903,13 @@
         <v>86</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14910,13 +14936,13 @@
         <v>75</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>75</v>
@@ -14934,7 +14960,7 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -14949,21 +14975,21 @@
         <v>97</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>541</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>75</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14986,13 +15012,13 @@
         <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15043,7 +15069,7 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15058,21 +15084,21 @@
         <v>97</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>546</v>
+        <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>75</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -15095,13 +15121,13 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15152,7 +15178,7 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
@@ -15161,31 +15187,31 @@
         <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -15204,16 +15230,16 @@
         <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -15263,7 +15289,7 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -15275,28 +15301,28 @@
         <v>75</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -15315,19 +15341,19 @@
         <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>75</v>
@@ -15376,7 +15402,7 @@
         <v>75</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -15388,24 +15414,24 @@
         <v>75</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15428,13 +15454,13 @@
         <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15461,13 +15487,13 @@
         <v>75</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>75</v>
@@ -15485,7 +15511,7 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>85</v>
@@ -15500,21 +15526,21 @@
         <v>97</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>556</v>
+        <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>75</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -15537,16 +15563,16 @@
         <v>86</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -15596,7 +15622,7 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -15611,13 +15637,13 @@
         <v>97</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>563</v>
+        <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>75</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-MedicinalProductDefinition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1260,7 +1260,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000001"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1362,7 +1362,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000002"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1397,7 +1397,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000003"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1432,7 +1432,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000004"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1467,7 +1467,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/220000000000"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/lists/220000000000"/&gt;
     &lt;code value="220000000005"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
